--- a/output/StructureDefinition-TICTFObsGral.xlsx
+++ b/output/StructureDefinition-TICTFObsGral.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T10:56:01-03:00</t>
+    <t>2025-06-21T18:29:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -909,7 +909,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://racsel.org/TIC-TSTF/StructureDefinition/TICTFPatient)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-TICTFObsGral.xlsx
+++ b/output/StructureDefinition-TICTFObsGral.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T16:41:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1945,17 +1945,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1964,28 +1964,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.2734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="214.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="93.1640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-TICTFObsGral.xlsx
+++ b/output/StructureDefinition-TICTFObsGral.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T12:04:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1945,17 +1945,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1964,28 +1964,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.13671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="219.89453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="94.265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="35.6328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
